--- a/Project2/sprint_backlogs/SprintBacklog4_27_20.xlsx
+++ b/Project2/sprint_backlogs/SprintBacklog4_27_20.xlsx
@@ -112,12 +112,15 @@
 </t>
   </si>
   <si>
+    <t>Help Screen</t>
+  </si>
+  <si>
+    <t>Patrick</t>
+  </si>
+  <si>
     <t>Learn GUI Framework</t>
   </si>
   <si>
-    <t>Patrick</t>
-  </si>
-  <si>
     <t>Add user Input</t>
   </si>
   <si>
@@ -125,9 +128,6 @@
   </si>
   <si>
     <t>GUI developed for the main menu, help screen</t>
-  </si>
-  <si>
-    <t>Help Screen</t>
   </si>
   <si>
     <t>inputs from the user, and result of an election.</t>
@@ -790,8 +790,14 @@
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="I23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="M23" s="10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N23" s="10" t="s">
         <v>33</v>
@@ -799,7 +805,7 @@
     </row>
     <row r="24">
       <c r="M24" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>33</v>
@@ -810,7 +816,7 @@
         <v>17</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>33</v>
@@ -818,13 +824,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M26" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="27">
